--- a/kinSoft_submission_Barth_Seidel_experimental.xlsx
+++ b/kinSoft_submission_Barth_Seidel_experimental.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anders/OneDrive - Heinrich-Heine-Universitat Dusseldorf/kinSoftChallenge/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{3C868351-F9C4-D548-A7D9-BC25BD26438A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D199F91-A323-C04E-B42B-F37E3FF77F04}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{3C868351-F9C4-D548-A7D9-BC25BD26438A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81B47E34-57CA-524A-B1BF-67A82224B4CE}"/>
   <bookViews>
-    <workbookView xWindow="12680" yWindow="460" windowWidth="25720" windowHeight="20180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13200" yWindow="460" windowWidth="25720" windowHeight="20180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t>Tool name:</t>
   </si>
@@ -515,9 +515,6 @@
     <t>Similar to level 3 for the syntetic data, we can not give rates as the high-FRET states could not be separated. Instead, we performed a two-state analysis and report the observed relaxation times.</t>
   </si>
   <si>
-    <t>This state is assumed to originate from dynamic mixing, i.e. not a structural state.</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -525,6 +522,15 @@
   </si>
   <si>
     <t>30 min</t>
+  </si>
+  <si>
+    <t>4*</t>
+  </si>
+  <si>
+    <t>* This state is assumed to originate from dynamic mixing, i.e. not a structural state.</t>
+  </si>
+  <si>
+    <t>(Reported relaxation times are the inverse eigenvalues of the transition rate matrix.)</t>
   </si>
 </sst>
 </file>
@@ -875,9 +881,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -890,7 +893,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -899,15 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -917,6 +910,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1266,11 +1274,11 @@
       <c r="B7" s="1"/>
     </row>
     <row r="9" spans="2:11" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="11" t="s">
         <v>46</v>
       </c>
@@ -1282,11 +1290,11 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
@@ -1298,11 +1306,11 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="11" t="s">
         <v>48</v>
       </c>
@@ -2192,428 +2200,409 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2625CF-2E59-CE44-A929-AAB713E3D356}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A3:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="14.5" style="32"/>
+    <col min="1" max="16384" width="14.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:13" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="E3" s="57" t="s">
+      <c r="C3" s="53"/>
+      <c r="E3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="35" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
+      <c r="B5" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="49"/>
+      <c r="C6" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="48">
+        <v>1</v>
+      </c>
+      <c r="C7" s="44">
+        <v>0.22</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0.378</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="G7" s="31">
+        <v>0.06</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="I7" s="44">
+        <v>0.23</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="K7" s="43">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="47">
+        <v>2</v>
+      </c>
+      <c r="C8" s="44">
+        <v>0.76</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0.11</v>
+      </c>
+      <c r="E8" s="43">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="I8" s="44">
+        <v>0.75</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0.09</v>
+      </c>
+      <c r="K8" s="43">
+        <v>0.161</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="46">
+        <v>3</v>
+      </c>
+      <c r="C9" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="43">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0.88</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I9" s="44">
+        <v>0.87</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0.06</v>
+      </c>
+      <c r="K9" s="43">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="58" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:13" s="36" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="54"/>
-      <c r="C6" s="53" t="s">
+      <c r="C10" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="40">
+        <v>0.13</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F10" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="40">
+        <v>0.12</v>
+      </c>
+      <c r="H10" s="42">
+        <v>0.128</v>
+      </c>
+      <c r="I10" s="41">
+        <v>0.67</v>
+      </c>
+      <c r="J10" s="40">
+        <v>0.21</v>
+      </c>
+      <c r="K10" s="39">
+        <v>0.251</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="35" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34"/>
+      <c r="B18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52" t="s">
+      <c r="B23" s="31">
+        <v>1.03</v>
+      </c>
+      <c r="C23" s="31">
+        <v>53.2</v>
+      </c>
+      <c r="D23" s="36">
+        <v>0.49</v>
+      </c>
+      <c r="E23" s="36">
+        <v>0.51</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53" t="s">
+      <c r="B24" s="31">
+        <v>1</v>
+      </c>
+      <c r="C24" s="31">
         <v>64</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="51"/>
-    </row>
-    <row r="7" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="50">
-        <v>1</v>
-      </c>
-      <c r="C7" s="46">
-        <v>0.22</v>
-      </c>
-      <c r="D7" s="32">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="45">
-        <v>0.378</v>
-      </c>
-      <c r="F7" s="32">
-        <v>0.23</v>
-      </c>
-      <c r="G7" s="32">
-        <v>0.06</v>
-      </c>
-      <c r="H7" s="47">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="I7" s="46">
-        <v>0.23</v>
-      </c>
-      <c r="J7" s="32">
-        <v>0.08</v>
-      </c>
-      <c r="K7" s="45">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="49">
-        <v>2</v>
-      </c>
-      <c r="C8" s="46">
-        <v>0.76</v>
-      </c>
-      <c r="D8" s="32">
-        <v>0.11</v>
-      </c>
-      <c r="E8" s="45">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="F8" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="G8" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="47">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="I8" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="J8" s="32">
-        <v>0.09</v>
-      </c>
-      <c r="K8" s="45">
-        <v>0.161</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="48">
-        <v>3</v>
-      </c>
-      <c r="C9" s="46">
-        <v>0.9</v>
-      </c>
-      <c r="D9" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="45">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="F9" s="32">
-        <v>0.88</v>
-      </c>
-      <c r="G9" s="32">
-        <v>0.04</v>
-      </c>
-      <c r="H9" s="47">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="I9" s="46">
-        <v>0.87</v>
-      </c>
-      <c r="J9" s="32">
-        <v>0.06</v>
-      </c>
-      <c r="K9" s="45">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="44">
-        <v>4</v>
-      </c>
-      <c r="C10" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="D10" s="41">
-        <v>0.13</v>
-      </c>
-      <c r="E10" s="40">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="F10" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="G10" s="41">
-        <v>0.12</v>
-      </c>
-      <c r="H10" s="43">
-        <v>0.128</v>
-      </c>
-      <c r="I10" s="42">
-        <v>0.67</v>
-      </c>
-      <c r="J10" s="41">
-        <v>0.21</v>
-      </c>
-      <c r="K10" s="40">
-        <v>0.251</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:13" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:5" s="36" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-    </row>
-    <row r="19" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="33" t="s">
+      <c r="D24" s="36">
+        <v>0.63</v>
+      </c>
+      <c r="E24" s="36">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="31">
+        <v>1.65</v>
+      </c>
+      <c r="C25" s="31">
+        <v>200</v>
+      </c>
+      <c r="D25" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="35" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C32" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="33" t="s">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="32">
-        <v>1.03</v>
-      </c>
-      <c r="C23" s="32">
-        <v>53.2</v>
-      </c>
-      <c r="D23" s="37">
-        <v>0.49</v>
-      </c>
-      <c r="E23" s="37">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="32">
-        <v>1</v>
-      </c>
-      <c r="C24" s="32">
-        <v>64</v>
-      </c>
-      <c r="D24" s="37">
-        <v>0.63</v>
-      </c>
-      <c r="E24" s="37">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="32">
-        <v>1.65</v>
-      </c>
-      <c r="C25" s="32">
-        <v>200</v>
-      </c>
-      <c r="D25" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:5" s="36" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-    </row>
-    <row r="32" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-    </row>
-    <row r="33" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="32">
+      <c r="B33" s="31">
         <f>1.11-B23</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="31">
         <f>64-C23</f>
         <v>10.799999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="31">
         <f>1.06-B24</f>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="31">
         <f>75-C24</f>
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="33" t="s">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="31">
         <f>1.77-B25</f>
         <v>0.12000000000000011</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="31">
         <f>315-C25</f>
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
-      <c r="B44" s="34" t="s">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="34"/>
+      <c r="B44" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-    </row>
-    <row r="45" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="33" t="s">
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-    </row>
-    <row r="46" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="33" t="s">
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="32">
+      <c r="B46" s="31">
         <f>B23-0.96</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="31">
         <f>C23-46</f>
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="33" t="s">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="32">
+      <c r="B47" s="31">
         <f>B24-0.95</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="31">
         <f>C24-55</f>
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="33" t="s">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="32">
+      <c r="B48" s="31">
         <f>B25-1.55</f>
         <v>9.9999999999999867E-2</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="31">
         <f>C25-155</f>
         <v>45</v>
       </c>
